--- a/YLMES/BOM/材料清单导入格式模板.xlsx
+++ b/YLMES/BOM/材料清单导入格式模板.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jack\子健\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>序号</t>
   </si>
@@ -162,209 +157,27 @@
     <t>端面折叠安装铰耳2(缺口)</t>
   </si>
   <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DZ05</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>端面折叠安装铰耳2</t>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DZ02.01</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力折叠-从动旋板</t>
-  </si>
-  <si>
-    <t>640*130*16</t>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DZ02.02</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>端面折叠架</t>
-  </si>
-  <si>
-    <t>2053.5*390*40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DZ02.03</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力折叠-主动旋板</t>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DZ02.04</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力折叠链罩</t>
-  </si>
-  <si>
-    <r>
-      <t>646</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*85*25</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DZ02.07</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力折叠调节座</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>70*30*42</t>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +203,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -399,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -422,13 +243,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,6 +271,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -501,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,7 +374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -713,26 +551,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,8 +594,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -775,8 +618,11 @@
         <v>1</v>
       </c>
       <c r="G2" s="2"/>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -796,8 +642,11 @@
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="27">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -817,141 +666,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>